--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{311D39E6-93B2-4EF2-BF5F-0F7EC87409F8}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26C8D76B-A03A-4551-A428-E002C0CAEECC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -212,7 +212,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -533,7 +533,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -686,9 +686,18 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44273</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8"/>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/g6t1/documents/zeitaufzeichnung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26C8D76B-A03A-4551-A428-E002C0CAEECC}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D411562-F4DA-4DD4-9A10-C3607812C8C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -110,6 +110,33 @@
   <si>
     <t>Use Cases: retouches</t>
   </si>
+  <si>
+    <t>Database: general idea</t>
+  </si>
+  <si>
+    <t>Workshop 01</t>
+  </si>
+  <si>
+    <t>Workshop 02 (Aufzeichnung)</t>
+  </si>
+  <si>
+    <t>Meeting with Angela Todhri</t>
+  </si>
+  <si>
+    <t>Discussing about database and models</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>First drafts</t>
+  </si>
+  <si>
+    <t>Retouches on first drafts</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,6 +249,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -527,13 +567,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -544,7 +584,7 @@
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="31">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -558,9 +598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B2" s="7">
         <v>8.3333333333333329E-2</v>
@@ -572,97 +612,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>44263</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>44256</v>
       </c>
       <c r="B3" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>44263</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8">
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
         <v>44266</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
         <v>44267</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <v>0.125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
-        <v>44268</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.33333333333333331</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
-        <v>44270</v>
+        <v>44268</v>
       </c>
       <c r="B7" s="7">
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>44270</v>
       </c>
       <c r="B8" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>44270</v>
+      </c>
+      <c r="B9" s="7">
         <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8">
-        <v>44272</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.125</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -671,79 +711,160 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B10" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>44273</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>44273</v>
+      </c>
+      <c r="B12" s="10">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>44280</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44289</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44291</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>
@@ -831,9 +952,8 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>
@@ -5658,7 +5778,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D411562-F4DA-4DD4-9A10-C3607812C8C2}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08AED734-6268-427B-8D1D-484CEB2521E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Use Cases: cleaning draft</t>
   </si>
   <si>
-    <t>Use Cases: retouches</t>
-  </si>
-  <si>
     <t>Database: general idea</t>
   </si>
   <si>
@@ -126,16 +123,40 @@
     <t>Discussing about database and models</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>Models</t>
   </si>
   <si>
     <t>First drafts</t>
   </si>
   <si>
-    <t>Retouches on first drafts</t>
+    <t>Added and modified models</t>
+  </si>
+  <si>
+    <t>Modified models</t>
+  </si>
+  <si>
+    <t>MySQL Database</t>
+  </si>
+  <si>
+    <t>H2 Database</t>
+  </si>
+  <si>
+    <t>Connecting Spring Boot with MySQL</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Adjustments on first drafts</t>
+  </si>
+  <si>
+    <t>Use Cases: adjustments</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Game creation: general idea</t>
   </si>
 </sst>
 </file>
@@ -145,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +227,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -233,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,6 +291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -570,10 +610,10 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -623,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -736,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -793,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -818,10 +858,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -832,10 +872,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -846,10 +886,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -860,66 +900,147 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8"/>
       <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8"/>
@@ -5778,7 +5899,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21:C1000</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08AED734-6268-427B-8D1D-484CEB2521E5}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75B4B488-869A-4BB3-B2EB-B7B0155A2FC3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -158,6 +158,18 @@
   <si>
     <t>Game creation: general idea</t>
   </si>
+  <si>
+    <t>Adjustments game creation</t>
+  </si>
+  <si>
+    <t>Store JSON in DB</t>
+  </si>
+  <si>
+    <t>Bugfix</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -288,7 +300,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -610,10 +621,10 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -662,7 +673,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -803,7 +814,7 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -820,7 +831,7 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
@@ -860,7 +871,7 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -958,7 +969,7 @@
       <c r="C24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -967,7 +978,7 @@
         <v>44301</v>
       </c>
       <c r="B25" s="7">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>32</v>
@@ -1033,24 +1044,60 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8"/>
@@ -1059,13 +1106,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="14"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8"/>
@@ -1074,7 +1121,6 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2"/>
-      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>
@@ -1094,7 +1140,7 @@
     <row r="42" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8"/>
@@ -5899,7 +5945,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29:C1000</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C33:C1000 C29 C38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75B4B488-869A-4BB3-B2EB-B7B0155A2FC3}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08B40257-35D8-4532-8AC1-91E29B1CCF1B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Koordination und Projektmanagement</t>
   </si>
   <si>
-    <t>Primäre Tätigkeit</t>
-  </si>
-  <si>
     <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Use Cases: cleaning draft</t>
-  </si>
-  <si>
-    <t>Database: general idea</t>
   </si>
   <si>
     <t>Workshop 01</t>
@@ -169,6 +163,27 @@
   </si>
   <si>
     <t>Implementation</t>
+  </si>
+  <si>
+    <t>JSON + Adjustments</t>
+  </si>
+  <si>
+    <t>JSON + Junit Tests</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>JSON Upload</t>
+  </si>
+  <si>
+    <t>Service tests + bugfix models</t>
+  </si>
+  <si>
+    <t>Junit: User service tests</t>
+  </si>
+  <si>
+    <t>Junit: general idea + first drafts</t>
   </si>
 </sst>
 </file>
@@ -283,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,6 +319,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -618,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -640,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -660,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -674,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -717,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -725,13 +742,13 @@
         <v>44268</v>
       </c>
       <c r="B7" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -739,13 +756,13 @@
         <v>44270</v>
       </c>
       <c r="B8" s="7">
-        <v>0.125</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -759,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -773,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -781,13 +798,13 @@
         <v>44273</v>
       </c>
       <c r="B11" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -801,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -815,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -829,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -844,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -858,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -866,13 +883,13 @@
         <v>44288</v>
       </c>
       <c r="B17" s="7">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -883,10 +900,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -897,10 +914,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -911,10 +928,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -928,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -939,10 +956,10 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -953,10 +970,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -970,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -981,10 +998,10 @@
         <v>0.25</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -998,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1009,10 +1026,10 @@
         <v>0.125</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1023,10 +1040,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1040,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1051,10 +1068,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1065,10 +1082,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1079,13 +1096,13 @@
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>44311</v>
       </c>
@@ -1096,78 +1113,173 @@
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="14"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
+    <row r="35" spans="1:7">
+      <c r="A35" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="14"/>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="8"/>
       <c r="B46" s="7"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:7">
       <c r="A47" s="8"/>
       <c r="B47" s="7"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:7">
       <c r="A48" s="8"/>
       <c r="B48" s="7"/>
       <c r="D48" s="3"/>
@@ -5945,7 +6057,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C33:C1000 C29 C38</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C44:C1000 C35 C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08B40257-35D8-4532-8AC1-91E29B1CCF1B}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCBDE01E-48F4-470D-9125-0F69C54B257E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="1520" yWindow="660" windowWidth="14400" windowHeight="9540" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -156,25 +156,13 @@
     <t>Adjustments game creation</t>
   </si>
   <si>
-    <t>Store JSON in DB</t>
-  </si>
-  <si>
     <t>Bugfix</t>
   </si>
   <si>
     <t>Implementation</t>
   </si>
   <si>
-    <t>JSON + Adjustments</t>
-  </si>
-  <si>
-    <t>JSON + Junit Tests</t>
-  </si>
-  <si>
     <t>Database</t>
-  </si>
-  <si>
-    <t>JSON Upload</t>
   </si>
   <si>
     <t>Service tests + bugfix models</t>
@@ -184,6 +172,24 @@
   </si>
   <si>
     <t>Junit: general idea + first drafts</t>
+  </si>
+  <si>
+    <t>Json + Junit Tests</t>
+  </si>
+  <si>
+    <t>Json + Adjustments</t>
+  </si>
+  <si>
+    <t>Store json in DB</t>
+  </si>
+  <si>
+    <t>Upload json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junit service tests + fix topic controller </t>
+  </si>
+  <si>
+    <t>Junit game services + database data</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,6 +327,9 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -638,10 +647,10 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -660,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -886,7 +895,7 @@
         <v>0.25</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>31</v>
@@ -1068,7 +1077,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
@@ -1082,10 +1091,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1096,10 +1105,10 @@
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1152,10 +1161,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1180,10 +1189,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1205,13 +1214,13 @@
         <v>44318</v>
       </c>
       <c r="B40" s="7">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1219,14 +1228,16 @@
         <v>44319</v>
       </c>
       <c r="B41" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
@@ -1236,10 +1247,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1250,48 +1261,86 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8"/>
-      <c r="B44" s="14"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B45" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="20"/>
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="18"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="18"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4">
@@ -6057,7 +6106,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C44:C1000 C35 C33</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 C47:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/SWE_PS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCBDE01E-48F4-470D-9125-0F69C54B257E}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{738D3789-F18D-4893-A23D-713B4D55688C}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="660" windowWidth="14400" windowHeight="9540" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Json + Adjustments</t>
   </si>
   <si>
-    <t>Store json in DB</t>
-  </si>
-  <si>
     <t>Upload json</t>
   </si>
   <si>
@@ -190,6 +187,21 @@
   </si>
   <si>
     <t>Junit game services + database data</t>
+  </si>
+  <si>
+    <t>Testing + use cases</t>
+  </si>
+  <si>
+    <t>Testing + database + started with javadoc</t>
+  </si>
+  <si>
+    <t>Testing: services + models</t>
+  </si>
+  <si>
+    <t>Store json in database</t>
+  </si>
+  <si>
+    <t>Junit tests</t>
   </si>
 </sst>
 </file>
@@ -304,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,6 +342,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -647,10 +660,10 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1094,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1108,7 +1121,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1164,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1296,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E45" s="20"/>
       <c r="G45" s="17"/>
@@ -1312,8 +1325,9 @@
         <v>40</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8">
@@ -1330,23 +1344,60 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
-      <c r="B48" s="18"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B49" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="18"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8"/>
@@ -6106,7 +6157,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 C47:C1000</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 C52:C1000 G49 G47 C47 F47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{738D3789-F18D-4893-A23D-713B4D55688C}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E008F4E7-A511-411C-8D55-F69CB32C7F31}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9540" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -111,25 +111,10 @@
     <t>Workshop 02 (Aufzeichnung)</t>
   </si>
   <si>
-    <t>Meeting with Angela Todhri</t>
-  </si>
-  <si>
-    <t>Discussing about database and models</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>First drafts</t>
-  </si>
-  <si>
     <t>Added and modified models</t>
   </si>
   <si>
     <t>Modified models</t>
-  </si>
-  <si>
-    <t>MySQL Database</t>
   </si>
   <si>
     <t>H2 Database</t>
@@ -138,31 +123,13 @@
     <t>Connecting Spring Boot with MySQL</t>
   </si>
   <si>
-    <t>Adjustments</t>
-  </si>
-  <si>
-    <t>Adjustments on first drafts</t>
-  </si>
-  <si>
     <t>Use Cases: adjustments</t>
-  </si>
-  <si>
-    <t>Frontend</t>
   </si>
   <si>
     <t>Game creation: general idea</t>
   </si>
   <si>
-    <t>Adjustments game creation</t>
-  </si>
-  <si>
-    <t>Bugfix</t>
-  </si>
-  <si>
     <t>Implementation</t>
-  </si>
-  <si>
-    <t>Database</t>
   </si>
   <si>
     <t>Service tests + bugfix models</t>
@@ -189,19 +156,52 @@
     <t>Junit game services + database data</t>
   </si>
   <si>
-    <t>Testing + use cases</t>
-  </si>
-  <si>
-    <t>Testing + database + started with javadoc</t>
-  </si>
-  <si>
-    <t>Testing: services + models</t>
-  </si>
-  <si>
     <t>Store json in database</t>
   </si>
   <si>
     <t>Junit tests</t>
+  </si>
+  <si>
+    <t>Dokumentation Abnahmetests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teambesprechung </t>
+  </si>
+  <si>
+    <t>Header bugfix</t>
+  </si>
+  <si>
+    <t>Models: First drafts</t>
+  </si>
+  <si>
+    <t>Models: Adjustments on first drafts</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Testing project</t>
+  </si>
+  <si>
+    <t>Besprechung with Angela about database and models</t>
+  </si>
+  <si>
+    <t>Adjustments to models</t>
+  </si>
+  <si>
+    <t>Adjustments game creation, bugfix</t>
+  </si>
+  <si>
+    <t>Besprechung with Michael, Angela</t>
+  </si>
+  <si>
+    <t>Tests + use cases</t>
+  </si>
+  <si>
+    <t>Tests + database + started with javadoc</t>
+  </si>
+  <si>
+    <t>Tests: services + models</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,6 +343,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -657,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -682,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -826,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -908,10 +909,10 @@
         <v>0.25</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -922,10 +923,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -936,10 +937,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -950,10 +951,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -978,10 +979,10 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -992,10 +993,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1023,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1048,10 +1049,10 @@
         <v>0.125</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1062,10 +1063,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1090,10 +1091,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1104,10 +1105,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1118,10 +1119,10 @@
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1174,10 +1175,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1202,10 +1203,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1230,10 +1231,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1244,10 +1245,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="14"/>
@@ -1260,10 +1261,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1274,10 +1275,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E43" s="18"/>
     </row>
@@ -1306,10 +1307,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E45" s="20"/>
       <c r="G45" s="17"/>
@@ -1322,10 +1323,10 @@
         <v>0.125</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G46" s="8"/>
     </row>
@@ -1351,13 +1352,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="8">
         <v>44327</v>
       </c>
@@ -1365,27 +1366,28 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="8">
         <v>44328</v>
       </c>
       <c r="B50" s="7">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>40</v>
+      <c r="C50" t="s">
+        <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="Y50" s="22"/>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="8">
         <v>44329</v>
       </c>
@@ -1393,73 +1395,116 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="8">
+        <v>44336</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="8">
+        <v>44342</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="8"/>
       <c r="B61" s="7"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:25">
       <c r="A62" s="8"/>
       <c r="B62" s="7"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:25">
       <c r="A63" s="8"/>
       <c r="B63" s="7"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:25">
       <c r="A64" s="8"/>
       <c r="B64" s="7"/>
       <c r="D64" s="3"/>
@@ -6157,7 +6202,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 C52:C1000 G49 G47 C47 F47</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 G49 C47 F47:G47 H51 F53 G54 C54:C55 C57 C61:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E008F4E7-A511-411C-8D55-F69CB32C7F31}"/>
+  <xr:revisionPtr revIDLastSave="854" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4271B0CE-7373-4979-A997-270BEE2E53C4}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9540" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -156,9 +165,6 @@
     <t>Junit game services + database data</t>
   </si>
   <si>
-    <t>Store json in database</t>
-  </si>
-  <si>
     <t>Junit tests</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Teambesprechung </t>
-  </si>
-  <si>
-    <t>Header bugfix</t>
   </si>
   <si>
     <t>Models: First drafts</t>
@@ -183,33 +186,52 @@
     <t>Testing project</t>
   </si>
   <si>
-    <t>Besprechung with Angela about database and models</t>
-  </si>
-  <si>
     <t>Adjustments to models</t>
   </si>
   <si>
     <t>Adjustments game creation, bugfix</t>
   </si>
   <si>
-    <t>Besprechung with Michael, Angela</t>
-  </si>
-  <si>
     <t>Tests + use cases</t>
   </si>
   <si>
-    <t>Tests + database + started with javadoc</t>
+    <t>Tests: services + models</t>
   </si>
   <si>
-    <t>Tests: services + models</t>
+    <t>Header/footer bugfix</t>
+  </si>
+  <si>
+    <t>Model Tests</t>
+  </si>
+  <si>
+    <t>Preparing PS Presentation</t>
+  </si>
+  <si>
+    <t>More Unit Testing</t>
+  </si>
+  <si>
+    <t>Besprechung w/ Angela (DB and models)</t>
+  </si>
+  <si>
+    <t>Besprechung w/ Michael, Angela</t>
+  </si>
+  <si>
+    <t>Tests + database + javadoc</t>
+  </si>
+  <si>
+    <t>Json - not fixed</t>
+  </si>
+  <si>
+    <t>total =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -316,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,6 +366,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -660,11 +685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -688,6 +713,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="25">
+        <f>SUM(B2:B80)</f>
+        <v>6.625</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8">
@@ -751,7 +783,7 @@
         <v>44267</v>
       </c>
       <c r="B6" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -765,7 +797,7 @@
         <v>44268</v>
       </c>
       <c r="B7" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -779,7 +811,7 @@
         <v>44270</v>
       </c>
       <c r="B8" s="7">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -821,7 +853,7 @@
         <v>44273</v>
       </c>
       <c r="B11" s="7">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -906,7 +938,7 @@
         <v>44288</v>
       </c>
       <c r="B17" s="7">
-        <v>0.25</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -920,13 +952,13 @@
         <v>44289</v>
       </c>
       <c r="B18" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -934,13 +966,13 @@
         <v>44290</v>
       </c>
       <c r="B19" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -948,13 +980,13 @@
         <v>44291</v>
       </c>
       <c r="B20" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -976,7 +1008,7 @@
         <v>44293</v>
       </c>
       <c r="B22" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1018,7 +1050,7 @@
         <v>44301</v>
       </c>
       <c r="B25" s="7">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>30</v>
@@ -1046,13 +1078,13 @@
         <v>44302</v>
       </c>
       <c r="B27" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1094,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1108,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1122,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1200,7 +1232,7 @@
         <v>44317</v>
       </c>
       <c r="B38" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -1228,7 +1260,7 @@
         <v>44318</v>
       </c>
       <c r="B40" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -1272,7 +1304,7 @@
         <v>44321</v>
       </c>
       <c r="B43" s="7">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1355,179 +1387,293 @@
         <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:25">
-      <c r="A49" s="8">
-        <v>44327</v>
+      <c r="A49" s="2">
+        <v>44326</v>
       </c>
       <c r="B49" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="8">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B50" s="7">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>52</v>
+      <c r="D50" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="Y50" s="22"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="8">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B51" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="8">
-        <v>44334</v>
+        <v>44329</v>
       </c>
       <c r="B52" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="8">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B53" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="B54" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="8">
+        <v>44342</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="8">
         <v>44344</v>
       </c>
-      <c r="B55" s="7">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="2">
-        <v>44345</v>
-      </c>
       <c r="B56" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57" s="8">
-        <v>44346</v>
+      <c r="A57" s="2">
+        <v>44345</v>
       </c>
       <c r="B57" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>42</v>
+      <c r="D58" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:25">
-      <c r="B59" s="9"/>
+      <c r="A59" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B62" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8"/>
@@ -1536,7 +1682,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="24"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
@@ -6202,7 +6348,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 G49 C47 F47:G47 H51 F53 G54 C54:C55 C57 C61:C1000</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 G49 C47 F47:G47 H51 F53 G54 C55:C56 C58 K60 H63 C69:C1000 I61 C65 C67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/flaminia_anselmi-Zeitaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="854" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4271B0CE-7373-4979-A997-270BEE2E53C4}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ACB2B11-1D48-46F4-9BC4-E2186D09690D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -686,10 +686,10 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="F1" s="25">
         <f>SUM(B2:B80)</f>
-        <v>6.625</v>
+        <v>6.958333333333333</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1676,14 +1676,32 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B69" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="24"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B70" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8"/>
@@ -6348,7 +6366,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 G49 C47 F47:G47 H51 F53 G54 C55:C56 C58 K60 H63 C69:C1000 I61 C65 C67</xm:sqref>
+          <xm:sqref>C4:C12 C2 C16 C14 C21 C24 C26 C29 C37 F45:G45 C35 C33 C44 F42:F43 G49 C47 F47:G47 H51 F53 G54 C55:C56 C58 K60 H63 I61 C65 C67 I70 G70 C71:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
